--- a/Tempi Italiani.xlsx
+++ b/Tempi Italiani.xlsx
@@ -19,115 +19,115 @@
     <t>0</t>
   </si>
   <si>
-    <t>io formo</t>
+    <t>io percepisco</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tu formi</t>
-  </si>
-  <si>
-    <t>lei/lui forma</t>
-  </si>
-  <si>
-    <t>noi formiamo</t>
-  </si>
-  <si>
-    <t>voi formate</t>
-  </si>
-  <si>
-    <t>loro formano</t>
-  </si>
-  <si>
-    <t>io formavo</t>
-  </si>
-  <si>
-    <t>tu formavi</t>
-  </si>
-  <si>
-    <t>lei/lui formava</t>
-  </si>
-  <si>
-    <t>noi formavamo</t>
-  </si>
-  <si>
-    <t>voi formavate</t>
-  </si>
-  <si>
-    <t>loro formavano</t>
-  </si>
-  <si>
-    <t>io formerò</t>
-  </si>
-  <si>
-    <t>tu formerai</t>
-  </si>
-  <si>
-    <t>lei/lui formerà</t>
-  </si>
-  <si>
-    <t>noi formeremo</t>
-  </si>
-  <si>
-    <t>voi formerete</t>
-  </si>
-  <si>
-    <t>loro formeranno</t>
-  </si>
-  <si>
-    <t>io ho formato</t>
-  </si>
-  <si>
-    <t>tu hai formato</t>
-  </si>
-  <si>
-    <t>lei/lui ha formato</t>
-  </si>
-  <si>
-    <t>noi abbiamo formato</t>
-  </si>
-  <si>
-    <t>voi avete formato</t>
-  </si>
-  <si>
-    <t>loro hanno formato</t>
-  </si>
-  <si>
-    <t>io avevo formato</t>
-  </si>
-  <si>
-    <t>tu avevi formato</t>
-  </si>
-  <si>
-    <t>lei/lui aveva formato</t>
-  </si>
-  <si>
-    <t>noi avevamo formato</t>
-  </si>
-  <si>
-    <t>voi avevate formato</t>
-  </si>
-  <si>
-    <t>loro avevano formato</t>
-  </si>
-  <si>
-    <t>io avrò formato</t>
-  </si>
-  <si>
-    <t>tu avrai formato</t>
-  </si>
-  <si>
-    <t>lei/lui avrà formato</t>
-  </si>
-  <si>
-    <t>noi avremo formato</t>
-  </si>
-  <si>
-    <t>voi avrete formato</t>
-  </si>
-  <si>
-    <t>loro avranno formato</t>
+    <t>tu percepisci</t>
+  </si>
+  <si>
+    <t>lei/lui percepisce</t>
+  </si>
+  <si>
+    <t>noi percepiamo</t>
+  </si>
+  <si>
+    <t>voi percepite</t>
+  </si>
+  <si>
+    <t>loro percepiscono</t>
+  </si>
+  <si>
+    <t>io percepivo</t>
+  </si>
+  <si>
+    <t>tu percepivi</t>
+  </si>
+  <si>
+    <t>lei/lui percepiva</t>
+  </si>
+  <si>
+    <t>noi percepivamo</t>
+  </si>
+  <si>
+    <t>voi percepivate</t>
+  </si>
+  <si>
+    <t>loro percepivano</t>
+  </si>
+  <si>
+    <t>io percepirò</t>
+  </si>
+  <si>
+    <t>tu percepirai</t>
+  </si>
+  <si>
+    <t>lei/lui percepirà</t>
+  </si>
+  <si>
+    <t>noi percepiremo</t>
+  </si>
+  <si>
+    <t>voi percepirete</t>
+  </si>
+  <si>
+    <t>loro percepiranno</t>
+  </si>
+  <si>
+    <t>io ho percepito</t>
+  </si>
+  <si>
+    <t>tu hai percepito</t>
+  </si>
+  <si>
+    <t>lei/lui ha percepito</t>
+  </si>
+  <si>
+    <t>noi abbiamo percepito</t>
+  </si>
+  <si>
+    <t>voi avete percepito</t>
+  </si>
+  <si>
+    <t>loro hanno percepito</t>
+  </si>
+  <si>
+    <t>io avevo percepito</t>
+  </si>
+  <si>
+    <t>tu avevi percepito</t>
+  </si>
+  <si>
+    <t>lei/lui aveva percepito</t>
+  </si>
+  <si>
+    <t>noi avevamo percepito</t>
+  </si>
+  <si>
+    <t>voi avevate percepito</t>
+  </si>
+  <si>
+    <t>loro avevano percepito</t>
+  </si>
+  <si>
+    <t>io avrò percepito</t>
+  </si>
+  <si>
+    <t>tu avrai percepito</t>
+  </si>
+  <si>
+    <t>lei/lui avrà percepito</t>
+  </si>
+  <si>
+    <t>noi avremo percepito</t>
+  </si>
+  <si>
+    <t>voi avrete percepito</t>
+  </si>
+  <si>
+    <t>loro avranno percepito</t>
   </si>
 </sst>
 </file>

--- a/Tempi Italiani.xlsx
+++ b/Tempi Italiani.xlsx
@@ -14,120 +14,1416 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="470">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>io percepisco</t>
+    <t>io ammetto</t>
+  </si>
+  <si>
+    <t>io preparo</t>
+  </si>
+  <si>
+    <t>io mi inchino</t>
+  </si>
+  <si>
+    <t>io chiamo</t>
+  </si>
+  <si>
+    <t>io mando</t>
+  </si>
+  <si>
+    <t>io devasto</t>
+  </si>
+  <si>
+    <t>io presto</t>
+  </si>
+  <si>
+    <t>io tempero</t>
+  </si>
+  <si>
+    <t>io volto</t>
+  </si>
+  <si>
+    <t>io estinguo</t>
+  </si>
+  <si>
+    <t>io accendo</t>
+  </si>
+  <si>
+    <t>io giuro</t>
+  </si>
+  <si>
+    <t>io scateno</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tu percepisci</t>
-  </si>
-  <si>
-    <t>lei/lui percepisce</t>
-  </si>
-  <si>
-    <t>noi percepiamo</t>
-  </si>
-  <si>
-    <t>voi percepite</t>
-  </si>
-  <si>
-    <t>loro percepiscono</t>
-  </si>
-  <si>
-    <t>io percepivo</t>
-  </si>
-  <si>
-    <t>tu percepivi</t>
-  </si>
-  <si>
-    <t>lei/lui percepiva</t>
-  </si>
-  <si>
-    <t>noi percepivamo</t>
-  </si>
-  <si>
-    <t>voi percepivate</t>
-  </si>
-  <si>
-    <t>loro percepivano</t>
-  </si>
-  <si>
-    <t>io percepirò</t>
-  </si>
-  <si>
-    <t>tu percepirai</t>
-  </si>
-  <si>
-    <t>lei/lui percepirà</t>
-  </si>
-  <si>
-    <t>noi percepiremo</t>
-  </si>
-  <si>
-    <t>voi percepirete</t>
-  </si>
-  <si>
-    <t>loro percepiranno</t>
-  </si>
-  <si>
-    <t>io ho percepito</t>
-  </si>
-  <si>
-    <t>tu hai percepito</t>
-  </si>
-  <si>
-    <t>lei/lui ha percepito</t>
-  </si>
-  <si>
-    <t>noi abbiamo percepito</t>
-  </si>
-  <si>
-    <t>voi avete percepito</t>
-  </si>
-  <si>
-    <t>loro hanno percepito</t>
-  </si>
-  <si>
-    <t>io avevo percepito</t>
-  </si>
-  <si>
-    <t>tu avevi percepito</t>
-  </si>
-  <si>
-    <t>lei/lui aveva percepito</t>
-  </si>
-  <si>
-    <t>noi avevamo percepito</t>
-  </si>
-  <si>
-    <t>voi avevate percepito</t>
-  </si>
-  <si>
-    <t>loro avevano percepito</t>
-  </si>
-  <si>
-    <t>io avrò percepito</t>
-  </si>
-  <si>
-    <t>tu avrai percepito</t>
-  </si>
-  <si>
-    <t>lei/lui avrà percepito</t>
-  </si>
-  <si>
-    <t>noi avremo percepito</t>
-  </si>
-  <si>
-    <t>voi avrete percepito</t>
-  </si>
-  <si>
-    <t>loro avranno percepito</t>
+    <t>tu ammetti</t>
+  </si>
+  <si>
+    <t>tu prepari</t>
+  </si>
+  <si>
+    <t>tu ti inchini</t>
+  </si>
+  <si>
+    <t>tu chiami</t>
+  </si>
+  <si>
+    <t>tu mandi</t>
+  </si>
+  <si>
+    <t>tu devasti</t>
+  </si>
+  <si>
+    <t>tu presti</t>
+  </si>
+  <si>
+    <t>tu temperi</t>
+  </si>
+  <si>
+    <t>tu volti</t>
+  </si>
+  <si>
+    <t>tu estingui</t>
+  </si>
+  <si>
+    <t>tu accendi</t>
+  </si>
+  <si>
+    <t>tu giuri</t>
+  </si>
+  <si>
+    <t>tu scateni</t>
+  </si>
+  <si>
+    <t>lei/lui ammette</t>
+  </si>
+  <si>
+    <t>lei/lui prepara</t>
+  </si>
+  <si>
+    <t>lei/lui si inchina</t>
+  </si>
+  <si>
+    <t>lei/lui chiama</t>
+  </si>
+  <si>
+    <t>lei/lui manda</t>
+  </si>
+  <si>
+    <t>lei/lui devasta</t>
+  </si>
+  <si>
+    <t>lei/lui presta</t>
+  </si>
+  <si>
+    <t>lei/lui tempera</t>
+  </si>
+  <si>
+    <t>lei/lui volta</t>
+  </si>
+  <si>
+    <t>lei/lui estingue</t>
+  </si>
+  <si>
+    <t>lei/lui accende</t>
+  </si>
+  <si>
+    <t>lei/lui giura</t>
+  </si>
+  <si>
+    <t>lei/lui scatena</t>
+  </si>
+  <si>
+    <t>noi ammettiamo</t>
+  </si>
+  <si>
+    <t>noi prepariamo</t>
+  </si>
+  <si>
+    <t>noi ci inchiniamo</t>
+  </si>
+  <si>
+    <t>noi chiamiamo</t>
+  </si>
+  <si>
+    <t>noi mandiamo</t>
+  </si>
+  <si>
+    <t>noi devastiamo</t>
+  </si>
+  <si>
+    <t>noi prestiamo</t>
+  </si>
+  <si>
+    <t>noi temperiamo</t>
+  </si>
+  <si>
+    <t>noi voltiamo</t>
+  </si>
+  <si>
+    <t>noi estinguiamo</t>
+  </si>
+  <si>
+    <t>noi accendiamo</t>
+  </si>
+  <si>
+    <t>noi giuriamo</t>
+  </si>
+  <si>
+    <t>noi scateniamo</t>
+  </si>
+  <si>
+    <t>voi ammettete</t>
+  </si>
+  <si>
+    <t>voi preparate</t>
+  </si>
+  <si>
+    <t>voi vi inchinate</t>
+  </si>
+  <si>
+    <t>voi chiamate</t>
+  </si>
+  <si>
+    <t>voi mandate</t>
+  </si>
+  <si>
+    <t>voi devastate</t>
+  </si>
+  <si>
+    <t>voi prestate</t>
+  </si>
+  <si>
+    <t>voi temperate</t>
+  </si>
+  <si>
+    <t>voi voltate</t>
+  </si>
+  <si>
+    <t>voi estinguete</t>
+  </si>
+  <si>
+    <t>voi accendete</t>
+  </si>
+  <si>
+    <t>voi giurate</t>
+  </si>
+  <si>
+    <t>voi scatenate</t>
+  </si>
+  <si>
+    <t>loro ammettono</t>
+  </si>
+  <si>
+    <t>loro preparano</t>
+  </si>
+  <si>
+    <t>loro si inchinano</t>
+  </si>
+  <si>
+    <t>loro chiamano</t>
+  </si>
+  <si>
+    <t>loro mandano</t>
+  </si>
+  <si>
+    <t>loro devastano</t>
+  </si>
+  <si>
+    <t>loro prestano</t>
+  </si>
+  <si>
+    <t>loro temperano</t>
+  </si>
+  <si>
+    <t>loro voltano</t>
+  </si>
+  <si>
+    <t>loro estinguono</t>
+  </si>
+  <si>
+    <t>loro accendono</t>
+  </si>
+  <si>
+    <t>loro giurano</t>
+  </si>
+  <si>
+    <t>loro scatenano</t>
+  </si>
+  <si>
+    <t>io ammettevo</t>
+  </si>
+  <si>
+    <t>io preparavo</t>
+  </si>
+  <si>
+    <t>io mi inchinavo</t>
+  </si>
+  <si>
+    <t>io chiamavo</t>
+  </si>
+  <si>
+    <t>io mandavo</t>
+  </si>
+  <si>
+    <t>io devastavo</t>
+  </si>
+  <si>
+    <t>io prestavo</t>
+  </si>
+  <si>
+    <t>io temperavo</t>
+  </si>
+  <si>
+    <t>io voltavo</t>
+  </si>
+  <si>
+    <t>io estinguevo</t>
+  </si>
+  <si>
+    <t>io accendevo</t>
+  </si>
+  <si>
+    <t>io giuravo</t>
+  </si>
+  <si>
+    <t>io scatenavo</t>
+  </si>
+  <si>
+    <t>tu ammettevi</t>
+  </si>
+  <si>
+    <t>tu preparavi</t>
+  </si>
+  <si>
+    <t>tu ti inchinavi</t>
+  </si>
+  <si>
+    <t>tu chiamavi</t>
+  </si>
+  <si>
+    <t>tu mandavi</t>
+  </si>
+  <si>
+    <t>tu devastavi</t>
+  </si>
+  <si>
+    <t>tu prestavi</t>
+  </si>
+  <si>
+    <t>tu temperavi</t>
+  </si>
+  <si>
+    <t>tu voltavi</t>
+  </si>
+  <si>
+    <t>tu estinguevi</t>
+  </si>
+  <si>
+    <t>tu accendevi</t>
+  </si>
+  <si>
+    <t>tu giuravi</t>
+  </si>
+  <si>
+    <t>tu scatenavi</t>
+  </si>
+  <si>
+    <t>lei/lui ammetteva</t>
+  </si>
+  <si>
+    <t>lei/lui preparava</t>
+  </si>
+  <si>
+    <t>lei/lui si inchinava</t>
+  </si>
+  <si>
+    <t>lei/lui chiamava</t>
+  </si>
+  <si>
+    <t>lei/lui mandava</t>
+  </si>
+  <si>
+    <t>lei/lui devastava</t>
+  </si>
+  <si>
+    <t>lei/lui prestava</t>
+  </si>
+  <si>
+    <t>lei/lui temperava</t>
+  </si>
+  <si>
+    <t>lei/lui voltava</t>
+  </si>
+  <si>
+    <t>lei/lui estingueva</t>
+  </si>
+  <si>
+    <t>lei/lui accendeva</t>
+  </si>
+  <si>
+    <t>lei/lui giurava</t>
+  </si>
+  <si>
+    <t>lei/lui scatenava</t>
+  </si>
+  <si>
+    <t>noi ammettevamo</t>
+  </si>
+  <si>
+    <t>noi preparavamo</t>
+  </si>
+  <si>
+    <t>noi ci inchinavamo</t>
+  </si>
+  <si>
+    <t>noi chiamavamo</t>
+  </si>
+  <si>
+    <t>noi mandavamo</t>
+  </si>
+  <si>
+    <t>noi devastavamo</t>
+  </si>
+  <si>
+    <t>noi prestavamo</t>
+  </si>
+  <si>
+    <t>noi temperavamo</t>
+  </si>
+  <si>
+    <t>noi voltavamo</t>
+  </si>
+  <si>
+    <t>noi estinguevamo</t>
+  </si>
+  <si>
+    <t>noi accendevamo</t>
+  </si>
+  <si>
+    <t>noi giuravamo</t>
+  </si>
+  <si>
+    <t>noi scatenavamo</t>
+  </si>
+  <si>
+    <t>voi ammettevate</t>
+  </si>
+  <si>
+    <t>voi preparavate</t>
+  </si>
+  <si>
+    <t>voi vi inchinavate</t>
+  </si>
+  <si>
+    <t>voi chiamavate</t>
+  </si>
+  <si>
+    <t>voi mandavate</t>
+  </si>
+  <si>
+    <t>voi devastavate</t>
+  </si>
+  <si>
+    <t>voi prestavate</t>
+  </si>
+  <si>
+    <t>voi temperavate</t>
+  </si>
+  <si>
+    <t>voi voltavate</t>
+  </si>
+  <si>
+    <t>voi estinguevate</t>
+  </si>
+  <si>
+    <t>voi accendevate</t>
+  </si>
+  <si>
+    <t>voi giuravate</t>
+  </si>
+  <si>
+    <t>voi scatenavate</t>
+  </si>
+  <si>
+    <t>loro ammettevano</t>
+  </si>
+  <si>
+    <t>loro preparavano</t>
+  </si>
+  <si>
+    <t>loro si inchinavano</t>
+  </si>
+  <si>
+    <t>loro chiamavano</t>
+  </si>
+  <si>
+    <t>loro mandavano</t>
+  </si>
+  <si>
+    <t>loro devastavano</t>
+  </si>
+  <si>
+    <t>loro prestavano</t>
+  </si>
+  <si>
+    <t>loro temperavano</t>
+  </si>
+  <si>
+    <t>loro voltavano</t>
+  </si>
+  <si>
+    <t>loro estinguevano</t>
+  </si>
+  <si>
+    <t>loro accendevano</t>
+  </si>
+  <si>
+    <t>loro giuravano</t>
+  </si>
+  <si>
+    <t>loro scatenavano</t>
+  </si>
+  <si>
+    <t>io ammetterò</t>
+  </si>
+  <si>
+    <t>io preparerò</t>
+  </si>
+  <si>
+    <t>io mi inchinerò</t>
+  </si>
+  <si>
+    <t>io chiamerò</t>
+  </si>
+  <si>
+    <t>io manderò</t>
+  </si>
+  <si>
+    <t>io devasterò</t>
+  </si>
+  <si>
+    <t>io presterò</t>
+  </si>
+  <si>
+    <t>io tempererò</t>
+  </si>
+  <si>
+    <t>io volterò</t>
+  </si>
+  <si>
+    <t>io estinguerò</t>
+  </si>
+  <si>
+    <t>io accenderò</t>
+  </si>
+  <si>
+    <t>io giurerò</t>
+  </si>
+  <si>
+    <t>io scatenerò</t>
+  </si>
+  <si>
+    <t>tu ammetterai</t>
+  </si>
+  <si>
+    <t>tu preparerai</t>
+  </si>
+  <si>
+    <t>tu ti inchinerai</t>
+  </si>
+  <si>
+    <t>tu chiamerai</t>
+  </si>
+  <si>
+    <t>tu manderai</t>
+  </si>
+  <si>
+    <t>tu devasterai</t>
+  </si>
+  <si>
+    <t>tu presterai</t>
+  </si>
+  <si>
+    <t>tu tempererai</t>
+  </si>
+  <si>
+    <t>tu volterai</t>
+  </si>
+  <si>
+    <t>tu estinguerai</t>
+  </si>
+  <si>
+    <t>tu accenderai</t>
+  </si>
+  <si>
+    <t>tu giurerai</t>
+  </si>
+  <si>
+    <t>tu scatenerai</t>
+  </si>
+  <si>
+    <t>lei/lui ammetterà</t>
+  </si>
+  <si>
+    <t>lei/lui preparerà</t>
+  </si>
+  <si>
+    <t>lei/lui si inchinerà</t>
+  </si>
+  <si>
+    <t>lei/lui chiamerà</t>
+  </si>
+  <si>
+    <t>lei/lui manderà</t>
+  </si>
+  <si>
+    <t>lei/lui devasterà</t>
+  </si>
+  <si>
+    <t>lei/lui presterà</t>
+  </si>
+  <si>
+    <t>lei/lui tempererà</t>
+  </si>
+  <si>
+    <t>lei/lui volterà</t>
+  </si>
+  <si>
+    <t>lei/lui estinguerà</t>
+  </si>
+  <si>
+    <t>lei/lui accenderà</t>
+  </si>
+  <si>
+    <t>lei/lui giurerà</t>
+  </si>
+  <si>
+    <t>lei/lui scatenerà</t>
+  </si>
+  <si>
+    <t>noi ammetteremo</t>
+  </si>
+  <si>
+    <t>noi prepareremo</t>
+  </si>
+  <si>
+    <t>noi ci inchineremo</t>
+  </si>
+  <si>
+    <t>noi chiameremo</t>
+  </si>
+  <si>
+    <t>noi manderemo</t>
+  </si>
+  <si>
+    <t>noi devasteremo</t>
+  </si>
+  <si>
+    <t>noi presteremo</t>
+  </si>
+  <si>
+    <t>noi tempereremo</t>
+  </si>
+  <si>
+    <t>noi volteremo</t>
+  </si>
+  <si>
+    <t>noi estingueremo</t>
+  </si>
+  <si>
+    <t>noi accenderemo</t>
+  </si>
+  <si>
+    <t>noi giureremo</t>
+  </si>
+  <si>
+    <t>noi scateneremo</t>
+  </si>
+  <si>
+    <t>voi ammetterete</t>
+  </si>
+  <si>
+    <t>voi preparerete</t>
+  </si>
+  <si>
+    <t>voi vi inchinerete</t>
+  </si>
+  <si>
+    <t>voi chiamerete</t>
+  </si>
+  <si>
+    <t>voi manderete</t>
+  </si>
+  <si>
+    <t>voi devasterete</t>
+  </si>
+  <si>
+    <t>voi presterete</t>
+  </si>
+  <si>
+    <t>voi tempererete</t>
+  </si>
+  <si>
+    <t>voi volterete</t>
+  </si>
+  <si>
+    <t>voi estinguerete</t>
+  </si>
+  <si>
+    <t>voi accenderete</t>
+  </si>
+  <si>
+    <t>voi giurerete</t>
+  </si>
+  <si>
+    <t>voi scatenerete</t>
+  </si>
+  <si>
+    <t>loro ammetteranno</t>
+  </si>
+  <si>
+    <t>loro prepareranno</t>
+  </si>
+  <si>
+    <t>loro si inchineranno</t>
+  </si>
+  <si>
+    <t>loro chiameranno</t>
+  </si>
+  <si>
+    <t>loro manderanno</t>
+  </si>
+  <si>
+    <t>loro devasteranno</t>
+  </si>
+  <si>
+    <t>loro presteranno</t>
+  </si>
+  <si>
+    <t>loro tempereranno</t>
+  </si>
+  <si>
+    <t>loro volteranno</t>
+  </si>
+  <si>
+    <t>loro estingueranno</t>
+  </si>
+  <si>
+    <t>loro accenderanno</t>
+  </si>
+  <si>
+    <t>loro giureranno</t>
+  </si>
+  <si>
+    <t>loro scateneranno</t>
+  </si>
+  <si>
+    <t>io ho ammesso</t>
+  </si>
+  <si>
+    <t>io ho preparato</t>
+  </si>
+  <si>
+    <t>io mi sono inchinato</t>
+  </si>
+  <si>
+    <t>io ho chiamato</t>
+  </si>
+  <si>
+    <t>io ho mandato</t>
+  </si>
+  <si>
+    <t>io ho devastato</t>
+  </si>
+  <si>
+    <t>io ho prestato</t>
+  </si>
+  <si>
+    <t>io ho temperato</t>
+  </si>
+  <si>
+    <t>io ho voltato</t>
+  </si>
+  <si>
+    <t>io ho estinto</t>
+  </si>
+  <si>
+    <t>io ho acceso</t>
+  </si>
+  <si>
+    <t>io ho giurato</t>
+  </si>
+  <si>
+    <t>io ho scatenato</t>
+  </si>
+  <si>
+    <t>tu hai ammesso</t>
+  </si>
+  <si>
+    <t>tu hai preparato</t>
+  </si>
+  <si>
+    <t>tu ti sei inchinato</t>
+  </si>
+  <si>
+    <t>tu hai chiamato</t>
+  </si>
+  <si>
+    <t>tu hai mandato</t>
+  </si>
+  <si>
+    <t>tu hai devastato</t>
+  </si>
+  <si>
+    <t>tu hai prestato</t>
+  </si>
+  <si>
+    <t>tu hai temperato</t>
+  </si>
+  <si>
+    <t>tu hai voltato</t>
+  </si>
+  <si>
+    <t>tu hai estinto</t>
+  </si>
+  <si>
+    <t>tu hai acceso</t>
+  </si>
+  <si>
+    <t>tu hai giurato</t>
+  </si>
+  <si>
+    <t>tu hai scatenato</t>
+  </si>
+  <si>
+    <t>lei/lui ha ammesso</t>
+  </si>
+  <si>
+    <t>lei/lui ha preparato</t>
+  </si>
+  <si>
+    <t>lui si è inchinato/lei si è inchinata</t>
+  </si>
+  <si>
+    <t>lei/lui ha chiamato</t>
+  </si>
+  <si>
+    <t>lei/lui ha mandato</t>
+  </si>
+  <si>
+    <t>lei/lui ha devastato</t>
+  </si>
+  <si>
+    <t>lei/lui ha prestato</t>
+  </si>
+  <si>
+    <t>lei/lui ha temperato</t>
+  </si>
+  <si>
+    <t>lei/lui ha voltato</t>
+  </si>
+  <si>
+    <t>lei/lui ha estinto</t>
+  </si>
+  <si>
+    <t>lei/lui ha acceso</t>
+  </si>
+  <si>
+    <t>lei/lui ha giurato</t>
+  </si>
+  <si>
+    <t>lei/lui ha scatenato</t>
+  </si>
+  <si>
+    <t>noi abbiamo ammesso</t>
+  </si>
+  <si>
+    <t>noi abbiamo preparato</t>
+  </si>
+  <si>
+    <t>noi ci siamo inchinati</t>
+  </si>
+  <si>
+    <t>noi abbiamo chiamato</t>
+  </si>
+  <si>
+    <t>noi abbiamo mandato</t>
+  </si>
+  <si>
+    <t>noi abbiamo devastato</t>
+  </si>
+  <si>
+    <t>noi abbiamo prestato</t>
+  </si>
+  <si>
+    <t>noi abbiamo temperato</t>
+  </si>
+  <si>
+    <t>noi abbiamo voltato</t>
+  </si>
+  <si>
+    <t>noi abbiamo estinto</t>
+  </si>
+  <si>
+    <t>noi abbiamo acceso</t>
+  </si>
+  <si>
+    <t>noi abbiamo giurato</t>
+  </si>
+  <si>
+    <t>noi abbiamo scatenato</t>
+  </si>
+  <si>
+    <t>voi avete ammesso</t>
+  </si>
+  <si>
+    <t>voi avete preparato</t>
+  </si>
+  <si>
+    <t>voi vi siete inchinati</t>
+  </si>
+  <si>
+    <t>voi avete chiamato</t>
+  </si>
+  <si>
+    <t>voi avete mandato</t>
+  </si>
+  <si>
+    <t>voi avete devastato</t>
+  </si>
+  <si>
+    <t>voi avete prestato</t>
+  </si>
+  <si>
+    <t>voi avete temperato</t>
+  </si>
+  <si>
+    <t>voi avete voltato</t>
+  </si>
+  <si>
+    <t>voi avete estinto</t>
+  </si>
+  <si>
+    <t>voi avete acceso</t>
+  </si>
+  <si>
+    <t>voi avete giurato</t>
+  </si>
+  <si>
+    <t>voi avete scatenato</t>
+  </si>
+  <si>
+    <t>loro hanno ammesso</t>
+  </si>
+  <si>
+    <t>loro hanno preparato</t>
+  </si>
+  <si>
+    <t>loro si sono inchinati/loro si sono inchinate</t>
+  </si>
+  <si>
+    <t>loro hanno chiamato</t>
+  </si>
+  <si>
+    <t>loro hanno mandato</t>
+  </si>
+  <si>
+    <t>loro hanno devastato</t>
+  </si>
+  <si>
+    <t>loro hanno prestato</t>
+  </si>
+  <si>
+    <t>loro hanno temperato</t>
+  </si>
+  <si>
+    <t>loro hanno voltato</t>
+  </si>
+  <si>
+    <t>loro hanno estinto</t>
+  </si>
+  <si>
+    <t>loro hanno acceso</t>
+  </si>
+  <si>
+    <t>loro hanno giurato</t>
+  </si>
+  <si>
+    <t>loro hanno scatenato</t>
+  </si>
+  <si>
+    <t>io avevo ammesso</t>
+  </si>
+  <si>
+    <t>io avevo preparato</t>
+  </si>
+  <si>
+    <t>io mi ero inchinato</t>
+  </si>
+  <si>
+    <t>io avevo chiamato</t>
+  </si>
+  <si>
+    <t>io avevo mandato</t>
+  </si>
+  <si>
+    <t>io avevo devastato</t>
+  </si>
+  <si>
+    <t>io avevo prestato</t>
+  </si>
+  <si>
+    <t>io avevo temperato</t>
+  </si>
+  <si>
+    <t>io avevo voltato</t>
+  </si>
+  <si>
+    <t>io avevo estinto</t>
+  </si>
+  <si>
+    <t>io avevo acceso</t>
+  </si>
+  <si>
+    <t>io avevo giurato</t>
+  </si>
+  <si>
+    <t>io avevo scatenato</t>
+  </si>
+  <si>
+    <t>tu avevi ammesso</t>
+  </si>
+  <si>
+    <t>tu avevi preparato</t>
+  </si>
+  <si>
+    <t>tu ti eri inchinato</t>
+  </si>
+  <si>
+    <t>tu avevi chiamato</t>
+  </si>
+  <si>
+    <t>tu avevi mandato</t>
+  </si>
+  <si>
+    <t>tu avevi devastato</t>
+  </si>
+  <si>
+    <t>tu avevi prestato</t>
+  </si>
+  <si>
+    <t>tu avevi temperato</t>
+  </si>
+  <si>
+    <t>tu avevi voltato</t>
+  </si>
+  <si>
+    <t>tu avevi estinto</t>
+  </si>
+  <si>
+    <t>tu avevi acceso</t>
+  </si>
+  <si>
+    <t>tu avevi giurato</t>
+  </si>
+  <si>
+    <t>tu avevi scatenato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva ammesso</t>
+  </si>
+  <si>
+    <t>lei/lui aveva preparato</t>
+  </si>
+  <si>
+    <t>lui si era inchinato/lei si era inchinata</t>
+  </si>
+  <si>
+    <t>lei/lui aveva chiamato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva mandato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva devastato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva prestato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva temperato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva voltato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva estinto</t>
+  </si>
+  <si>
+    <t>lei/lui aveva acceso</t>
+  </si>
+  <si>
+    <t>lei/lui aveva giurato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva scatenato</t>
+  </si>
+  <si>
+    <t>noi avevamo ammesso</t>
+  </si>
+  <si>
+    <t>noi avevamo preparato</t>
+  </si>
+  <si>
+    <t>noi ci eravamo inchinati</t>
+  </si>
+  <si>
+    <t>noi avevamo chiamato</t>
+  </si>
+  <si>
+    <t>noi avevamo mandato</t>
+  </si>
+  <si>
+    <t>noi avevamo devastato</t>
+  </si>
+  <si>
+    <t>noi avevamo prestato</t>
+  </si>
+  <si>
+    <t>noi avevamo temperato</t>
+  </si>
+  <si>
+    <t>noi avevamo voltato</t>
+  </si>
+  <si>
+    <t>noi avevamo estinto</t>
+  </si>
+  <si>
+    <t>noi avevamo acceso</t>
+  </si>
+  <si>
+    <t>noi avevamo giurato</t>
+  </si>
+  <si>
+    <t>noi avevamo scatenato</t>
+  </si>
+  <si>
+    <t>voi avevate ammesso</t>
+  </si>
+  <si>
+    <t>voi avevate preparato</t>
+  </si>
+  <si>
+    <t>voi vi eravate inchinati</t>
+  </si>
+  <si>
+    <t>voi avevate chiamato</t>
+  </si>
+  <si>
+    <t>voi avevate mandato</t>
+  </si>
+  <si>
+    <t>voi avevate devastato</t>
+  </si>
+  <si>
+    <t>voi avevate prestato</t>
+  </si>
+  <si>
+    <t>voi avevate temperato</t>
+  </si>
+  <si>
+    <t>voi avevate voltato</t>
+  </si>
+  <si>
+    <t>voi avevate estinto</t>
+  </si>
+  <si>
+    <t>voi avevate acceso</t>
+  </si>
+  <si>
+    <t>voi avevate giurato</t>
+  </si>
+  <si>
+    <t>voi avevate scatenato</t>
+  </si>
+  <si>
+    <t>loro avevano ammesso</t>
+  </si>
+  <si>
+    <t>loro avevano preparato</t>
+  </si>
+  <si>
+    <t>loro si erano inchinati/loro si erano inchinate</t>
+  </si>
+  <si>
+    <t>loro avevano chiamato</t>
+  </si>
+  <si>
+    <t>loro avevano mandato</t>
+  </si>
+  <si>
+    <t>loro avevano devastato</t>
+  </si>
+  <si>
+    <t>loro avevano prestato</t>
+  </si>
+  <si>
+    <t>loro avevano temperato</t>
+  </si>
+  <si>
+    <t>loro avevano voltato</t>
+  </si>
+  <si>
+    <t>loro avevano estinto</t>
+  </si>
+  <si>
+    <t>loro avevano acceso</t>
+  </si>
+  <si>
+    <t>loro avevano giurato</t>
+  </si>
+  <si>
+    <t>loro avevano scatenato</t>
+  </si>
+  <si>
+    <t>io avrò ammesso</t>
+  </si>
+  <si>
+    <t>io avrò preparato</t>
+  </si>
+  <si>
+    <t>io mi sarò inchinato</t>
+  </si>
+  <si>
+    <t>io avrò chiamato</t>
+  </si>
+  <si>
+    <t>io avrò mandato</t>
+  </si>
+  <si>
+    <t>io avrò devastato</t>
+  </si>
+  <si>
+    <t>io avrò prestato</t>
+  </si>
+  <si>
+    <t>io avrò temperato</t>
+  </si>
+  <si>
+    <t>io avrò voltato</t>
+  </si>
+  <si>
+    <t>io avrò estinto</t>
+  </si>
+  <si>
+    <t>io avrò acceso</t>
+  </si>
+  <si>
+    <t>io avrò giurato</t>
+  </si>
+  <si>
+    <t>io avrò scatenato</t>
+  </si>
+  <si>
+    <t>tu avrai ammesso</t>
+  </si>
+  <si>
+    <t>tu avrai preparato</t>
+  </si>
+  <si>
+    <t>tu ti sarai inchinato</t>
+  </si>
+  <si>
+    <t>tu avrai chiamato</t>
+  </si>
+  <si>
+    <t>tu avrai mandato</t>
+  </si>
+  <si>
+    <t>tu avrai devastato</t>
+  </si>
+  <si>
+    <t>tu avrai prestato</t>
+  </si>
+  <si>
+    <t>tu avrai temperato</t>
+  </si>
+  <si>
+    <t>tu avrai voltato</t>
+  </si>
+  <si>
+    <t>tu avrai estinto</t>
+  </si>
+  <si>
+    <t>tu avrai acceso</t>
+  </si>
+  <si>
+    <t>tu avrai giurato</t>
+  </si>
+  <si>
+    <t>tu avrai scatenato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà ammesso</t>
+  </si>
+  <si>
+    <t>lei/lui avrà preparato</t>
+  </si>
+  <si>
+    <t>lui si sarà inchinato/lei si sarà inchinata</t>
+  </si>
+  <si>
+    <t>lei/lui avrà chiamato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà mandato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà devastato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà prestato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà temperato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà voltato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà estinto</t>
+  </si>
+  <si>
+    <t>lei/lui avrà acceso</t>
+  </si>
+  <si>
+    <t>lei/lui avrà giurato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà scatenato</t>
+  </si>
+  <si>
+    <t>noi avremo ammesso</t>
+  </si>
+  <si>
+    <t>noi avremo preparato</t>
+  </si>
+  <si>
+    <t>noi ci saremo inchinati</t>
+  </si>
+  <si>
+    <t>noi avremo chiamato</t>
+  </si>
+  <si>
+    <t>noi avremo mandato</t>
+  </si>
+  <si>
+    <t>noi avremo devastato</t>
+  </si>
+  <si>
+    <t>noi avremo prestato</t>
+  </si>
+  <si>
+    <t>noi avremo temperato</t>
+  </si>
+  <si>
+    <t>noi avremo voltato</t>
+  </si>
+  <si>
+    <t>noi avremo estinto</t>
+  </si>
+  <si>
+    <t>noi avremo acceso</t>
+  </si>
+  <si>
+    <t>noi avremo giurato</t>
+  </si>
+  <si>
+    <t>noi avremo scatenato</t>
+  </si>
+  <si>
+    <t>voi avrete ammesso</t>
+  </si>
+  <si>
+    <t>voi avrete preparato</t>
+  </si>
+  <si>
+    <t>voi vi sarete inchinati</t>
+  </si>
+  <si>
+    <t>voi avrete chiamato</t>
+  </si>
+  <si>
+    <t>voi avrete mandato</t>
+  </si>
+  <si>
+    <t>voi avrete devastato</t>
+  </si>
+  <si>
+    <t>voi avrete prestato</t>
+  </si>
+  <si>
+    <t>voi avrete temperato</t>
+  </si>
+  <si>
+    <t>voi avrete voltato</t>
+  </si>
+  <si>
+    <t>voi avrete estinto</t>
+  </si>
+  <si>
+    <t>voi avrete acceso</t>
+  </si>
+  <si>
+    <t>voi avrete giurato</t>
+  </si>
+  <si>
+    <t>voi avrete scatenato</t>
+  </si>
+  <si>
+    <t>loro avranno ammesso</t>
+  </si>
+  <si>
+    <t>loro avranno preparato</t>
+  </si>
+  <si>
+    <t>loro si saranno inchinati/loro si saranno inchinate</t>
+  </si>
+  <si>
+    <t>loro avranno chiamato</t>
+  </si>
+  <si>
+    <t>loro avranno mandato</t>
+  </si>
+  <si>
+    <t>loro avranno devastato</t>
+  </si>
+  <si>
+    <t>loro avranno prestato</t>
+  </si>
+  <si>
+    <t>loro avranno temperato</t>
+  </si>
+  <si>
+    <t>loro avranno voltato</t>
+  </si>
+  <si>
+    <t>loro avranno estinto</t>
+  </si>
+  <si>
+    <t>loro avranno acceso</t>
+  </si>
+  <si>
+    <t>loro avranno giurato</t>
+  </si>
+  <si>
+    <t>loro avranno scatenato</t>
   </si>
 </sst>
 </file>
@@ -485,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,217 +2010,2833 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>392</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>405</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>418</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>431</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>457</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>354</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>393</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>406</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>419</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>432</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>445</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>458</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>342</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>394</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>407</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>420</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>433</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>446</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>330</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>343</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>356</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>369</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>395</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>421</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>434</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>447</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>460</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>149</v>
+      </c>
+      <c r="X7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>344</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>357</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>370</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>383</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>396</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>409</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>422</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>435</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>448</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>461</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" t="s">
+        <v>150</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>345</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>358</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>371</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>384</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>397</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>423</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>436</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>449</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>462</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" t="s">
+        <v>138</v>
+      </c>
+      <c r="V9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>346</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>359</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>385</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>398</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>411</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>424</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>437</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>450</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>463</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" t="s">
+        <v>139</v>
+      </c>
+      <c r="V10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" t="s">
+        <v>152</v>
+      </c>
+      <c r="X10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>399</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>425</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>438</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>451</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>464</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" t="s">
+        <v>153</v>
+      </c>
+      <c r="X11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>348</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>361</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>413</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>426</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>439</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>452</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>465</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" t="s">
+        <v>141</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" t="s">
+        <v>154</v>
+      </c>
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>375</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>388</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>401</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>414</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>427</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>440</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>453</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>466</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" t="s">
+        <v>142</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>337</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>389</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>402</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>415</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>428</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>441</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>454</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>467</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" t="s">
+        <v>143</v>
+      </c>
+      <c r="V14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>325</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>351</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>364</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>377</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>390</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>442</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>455</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>468</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>2</v>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>118</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" t="s">
+        <v>131</v>
+      </c>
+      <c r="T15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" t="s">
+        <v>144</v>
+      </c>
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>352</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>391</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>404</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>417</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>430</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>443</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>456</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>469</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Tempi Italiani.xlsx
+++ b/Tempi Italiani.xlsx
@@ -19,115 +19,115 @@
     <t>0</t>
   </si>
   <si>
-    <t>io sforzo</t>
+    <t>io manipolo</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tu sforzi</t>
-  </si>
-  <si>
-    <t>lei/lui sforza</t>
-  </si>
-  <si>
-    <t>noi sforziamo</t>
-  </si>
-  <si>
-    <t>voi sforzate</t>
-  </si>
-  <si>
-    <t>loro sforzano</t>
-  </si>
-  <si>
-    <t>io sforzavo</t>
-  </si>
-  <si>
-    <t>tu sforzavi</t>
-  </si>
-  <si>
-    <t>lei/lui sforzava</t>
-  </si>
-  <si>
-    <t>noi sforzavamo</t>
-  </si>
-  <si>
-    <t>voi sforzavate</t>
-  </si>
-  <si>
-    <t>loro sforzavano</t>
-  </si>
-  <si>
-    <t>io sforzerò</t>
-  </si>
-  <si>
-    <t>tu sforzerai</t>
-  </si>
-  <si>
-    <t>lei/lui sforzerà</t>
-  </si>
-  <si>
-    <t>noi sforzeremo</t>
-  </si>
-  <si>
-    <t>voi sforzerete</t>
-  </si>
-  <si>
-    <t>loro sforzeranno</t>
-  </si>
-  <si>
-    <t>io ho sforzato</t>
-  </si>
-  <si>
-    <t>tu hai sforzato</t>
-  </si>
-  <si>
-    <t>lei/lui ha sforzato</t>
-  </si>
-  <si>
-    <t>noi abbiamo sforzato</t>
-  </si>
-  <si>
-    <t>voi avete sforzato</t>
-  </si>
-  <si>
-    <t>loro hanno sforzato</t>
-  </si>
-  <si>
-    <t>io avevo sforzato</t>
-  </si>
-  <si>
-    <t>tu avevi sforzato</t>
-  </si>
-  <si>
-    <t>lei/lui aveva sforzato</t>
-  </si>
-  <si>
-    <t>noi avevamo sforzato</t>
-  </si>
-  <si>
-    <t>voi avevate sforzato</t>
-  </si>
-  <si>
-    <t>loro avevano sforzato</t>
-  </si>
-  <si>
-    <t>io avrò sforzato</t>
-  </si>
-  <si>
-    <t>tu avrai sforzato</t>
-  </si>
-  <si>
-    <t>lei/lui avrà sforzato</t>
-  </si>
-  <si>
-    <t>noi avremo sforzato</t>
-  </si>
-  <si>
-    <t>voi avrete sforzato</t>
-  </si>
-  <si>
-    <t>loro avranno sforzato</t>
+    <t>tu manipoli</t>
+  </si>
+  <si>
+    <t>lei/lui manipola</t>
+  </si>
+  <si>
+    <t>noi manipoliamo</t>
+  </si>
+  <si>
+    <t>voi manipolate</t>
+  </si>
+  <si>
+    <t>loro manipolano</t>
+  </si>
+  <si>
+    <t>io manipolavo</t>
+  </si>
+  <si>
+    <t>tu manipolavi</t>
+  </si>
+  <si>
+    <t>lei/lui manipolava</t>
+  </si>
+  <si>
+    <t>noi manipolavamo</t>
+  </si>
+  <si>
+    <t>voi manipolavate</t>
+  </si>
+  <si>
+    <t>loro manipolavano</t>
+  </si>
+  <si>
+    <t>io manipolerò</t>
+  </si>
+  <si>
+    <t>tu manipolerai</t>
+  </si>
+  <si>
+    <t>lei/lui manipolerà</t>
+  </si>
+  <si>
+    <t>noi manipoleremo</t>
+  </si>
+  <si>
+    <t>voi manipolerete</t>
+  </si>
+  <si>
+    <t>loro manipoleranno</t>
+  </si>
+  <si>
+    <t>io ho manipolato</t>
+  </si>
+  <si>
+    <t>tu hai manipolato</t>
+  </si>
+  <si>
+    <t>lei/lui ha manipolato</t>
+  </si>
+  <si>
+    <t>noi abbiamo manipolato</t>
+  </si>
+  <si>
+    <t>voi avete manipolato</t>
+  </si>
+  <si>
+    <t>loro hanno manipolato</t>
+  </si>
+  <si>
+    <t>io avevo manipolato</t>
+  </si>
+  <si>
+    <t>tu avevi manipolato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva manipolato</t>
+  </si>
+  <si>
+    <t>noi avevamo manipolato</t>
+  </si>
+  <si>
+    <t>voi avevate manipolato</t>
+  </si>
+  <si>
+    <t>loro avevano manipolato</t>
+  </si>
+  <si>
+    <t>io avrò manipolato</t>
+  </si>
+  <si>
+    <t>tu avrai manipolato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà manipolato</t>
+  </si>
+  <si>
+    <t>noi avremo manipolato</t>
+  </si>
+  <si>
+    <t>voi avrete manipolato</t>
+  </si>
+  <si>
+    <t>loro avranno manipolato</t>
   </si>
 </sst>
 </file>

--- a/Tempi Italiani.xlsx
+++ b/Tempi Italiani.xlsx
@@ -19,115 +19,115 @@
     <t>0</t>
   </si>
   <si>
-    <t>io manipolo</t>
+    <t>io rapisco</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tu manipoli</t>
-  </si>
-  <si>
-    <t>lei/lui manipola</t>
-  </si>
-  <si>
-    <t>noi manipoliamo</t>
-  </si>
-  <si>
-    <t>voi manipolate</t>
-  </si>
-  <si>
-    <t>loro manipolano</t>
-  </si>
-  <si>
-    <t>io manipolavo</t>
-  </si>
-  <si>
-    <t>tu manipolavi</t>
-  </si>
-  <si>
-    <t>lei/lui manipolava</t>
-  </si>
-  <si>
-    <t>noi manipolavamo</t>
-  </si>
-  <si>
-    <t>voi manipolavate</t>
-  </si>
-  <si>
-    <t>loro manipolavano</t>
-  </si>
-  <si>
-    <t>io manipolerò</t>
-  </si>
-  <si>
-    <t>tu manipolerai</t>
-  </si>
-  <si>
-    <t>lei/lui manipolerà</t>
-  </si>
-  <si>
-    <t>noi manipoleremo</t>
-  </si>
-  <si>
-    <t>voi manipolerete</t>
-  </si>
-  <si>
-    <t>loro manipoleranno</t>
-  </si>
-  <si>
-    <t>io ho manipolato</t>
-  </si>
-  <si>
-    <t>tu hai manipolato</t>
-  </si>
-  <si>
-    <t>lei/lui ha manipolato</t>
-  </si>
-  <si>
-    <t>noi abbiamo manipolato</t>
-  </si>
-  <si>
-    <t>voi avete manipolato</t>
-  </si>
-  <si>
-    <t>loro hanno manipolato</t>
-  </si>
-  <si>
-    <t>io avevo manipolato</t>
-  </si>
-  <si>
-    <t>tu avevi manipolato</t>
-  </si>
-  <si>
-    <t>lei/lui aveva manipolato</t>
-  </si>
-  <si>
-    <t>noi avevamo manipolato</t>
-  </si>
-  <si>
-    <t>voi avevate manipolato</t>
-  </si>
-  <si>
-    <t>loro avevano manipolato</t>
-  </si>
-  <si>
-    <t>io avrò manipolato</t>
-  </si>
-  <si>
-    <t>tu avrai manipolato</t>
-  </si>
-  <si>
-    <t>lei/lui avrà manipolato</t>
-  </si>
-  <si>
-    <t>noi avremo manipolato</t>
-  </si>
-  <si>
-    <t>voi avrete manipolato</t>
-  </si>
-  <si>
-    <t>loro avranno manipolato</t>
+    <t>tu rapisci</t>
+  </si>
+  <si>
+    <t>lei/lui rapisce</t>
+  </si>
+  <si>
+    <t>noi rapiamo</t>
+  </si>
+  <si>
+    <t>voi rapite</t>
+  </si>
+  <si>
+    <t>loro rapiscono</t>
+  </si>
+  <si>
+    <t>io rapivo</t>
+  </si>
+  <si>
+    <t>tu rapivi</t>
+  </si>
+  <si>
+    <t>lei/lui rapiva</t>
+  </si>
+  <si>
+    <t>noi rapivamo</t>
+  </si>
+  <si>
+    <t>voi rapivate</t>
+  </si>
+  <si>
+    <t>loro rapivano</t>
+  </si>
+  <si>
+    <t>io rapirò</t>
+  </si>
+  <si>
+    <t>tu rapirai</t>
+  </si>
+  <si>
+    <t>lei/lui rapirà</t>
+  </si>
+  <si>
+    <t>noi rapiremo</t>
+  </si>
+  <si>
+    <t>voi rapirete</t>
+  </si>
+  <si>
+    <t>loro rapiranno</t>
+  </si>
+  <si>
+    <t>io ho rapito</t>
+  </si>
+  <si>
+    <t>tu hai rapito</t>
+  </si>
+  <si>
+    <t>lei/lui ha rapito</t>
+  </si>
+  <si>
+    <t>noi abbiamo rapito</t>
+  </si>
+  <si>
+    <t>voi avete rapito</t>
+  </si>
+  <si>
+    <t>loro hanno rapito</t>
+  </si>
+  <si>
+    <t>io avevo rapito</t>
+  </si>
+  <si>
+    <t>tu avevi rapito</t>
+  </si>
+  <si>
+    <t>lei/lui aveva rapito</t>
+  </si>
+  <si>
+    <t>noi avevamo rapito</t>
+  </si>
+  <si>
+    <t>voi avevate rapito</t>
+  </si>
+  <si>
+    <t>loro avevano rapito</t>
+  </si>
+  <si>
+    <t>io avrò rapito</t>
+  </si>
+  <si>
+    <t>tu avrai rapito</t>
+  </si>
+  <si>
+    <t>lei/lui avrà rapito</t>
+  </si>
+  <si>
+    <t>noi avremo rapito</t>
+  </si>
+  <si>
+    <t>voi avrete rapito</t>
+  </si>
+  <si>
+    <t>loro avranno rapito</t>
   </si>
 </sst>
 </file>

--- a/Tempi Italiani.xlsx
+++ b/Tempi Italiani.xlsx
@@ -14,120 +14,768 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="254">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>io rapisco</t>
+    <t>io declasso</t>
+  </si>
+  <si>
+    <t>io essicco</t>
+  </si>
+  <si>
+    <t>io scarto</t>
+  </si>
+  <si>
+    <t>io infrango</t>
+  </si>
+  <si>
+    <t>io interrogo</t>
+  </si>
+  <si>
+    <t>io limito</t>
+  </si>
+  <si>
+    <t>io stropiccio</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tu rapisci</t>
-  </si>
-  <si>
-    <t>lei/lui rapisce</t>
-  </si>
-  <si>
-    <t>noi rapiamo</t>
-  </si>
-  <si>
-    <t>voi rapite</t>
-  </si>
-  <si>
-    <t>loro rapiscono</t>
-  </si>
-  <si>
-    <t>io rapivo</t>
-  </si>
-  <si>
-    <t>tu rapivi</t>
-  </si>
-  <si>
-    <t>lei/lui rapiva</t>
-  </si>
-  <si>
-    <t>noi rapivamo</t>
-  </si>
-  <si>
-    <t>voi rapivate</t>
-  </si>
-  <si>
-    <t>loro rapivano</t>
-  </si>
-  <si>
-    <t>io rapirò</t>
-  </si>
-  <si>
-    <t>tu rapirai</t>
-  </si>
-  <si>
-    <t>lei/lui rapirà</t>
-  </si>
-  <si>
-    <t>noi rapiremo</t>
-  </si>
-  <si>
-    <t>voi rapirete</t>
-  </si>
-  <si>
-    <t>loro rapiranno</t>
-  </si>
-  <si>
-    <t>io ho rapito</t>
-  </si>
-  <si>
-    <t>tu hai rapito</t>
-  </si>
-  <si>
-    <t>lei/lui ha rapito</t>
-  </si>
-  <si>
-    <t>noi abbiamo rapito</t>
-  </si>
-  <si>
-    <t>voi avete rapito</t>
-  </si>
-  <si>
-    <t>loro hanno rapito</t>
-  </si>
-  <si>
-    <t>io avevo rapito</t>
-  </si>
-  <si>
-    <t>tu avevi rapito</t>
-  </si>
-  <si>
-    <t>lei/lui aveva rapito</t>
-  </si>
-  <si>
-    <t>noi avevamo rapito</t>
-  </si>
-  <si>
-    <t>voi avevate rapito</t>
-  </si>
-  <si>
-    <t>loro avevano rapito</t>
-  </si>
-  <si>
-    <t>io avrò rapito</t>
-  </si>
-  <si>
-    <t>tu avrai rapito</t>
-  </si>
-  <si>
-    <t>lei/lui avrà rapito</t>
-  </si>
-  <si>
-    <t>noi avremo rapito</t>
-  </si>
-  <si>
-    <t>voi avrete rapito</t>
-  </si>
-  <si>
-    <t>loro avranno rapito</t>
+    <t>tu declassi</t>
+  </si>
+  <si>
+    <t>tu essicchi</t>
+  </si>
+  <si>
+    <t>tu scarti</t>
+  </si>
+  <si>
+    <t>tu infrangi</t>
+  </si>
+  <si>
+    <t>tu interroghi</t>
+  </si>
+  <si>
+    <t>tu limiti</t>
+  </si>
+  <si>
+    <t>tu stropicci</t>
+  </si>
+  <si>
+    <t>lei/lui declassa</t>
+  </si>
+  <si>
+    <t>lei/lui essicca</t>
+  </si>
+  <si>
+    <t>lei/lui scarta</t>
+  </si>
+  <si>
+    <t>lei/lui infrange</t>
+  </si>
+  <si>
+    <t>lei/lui interroga</t>
+  </si>
+  <si>
+    <t>lei/lui limita</t>
+  </si>
+  <si>
+    <t>lei/lui stropiccia</t>
+  </si>
+  <si>
+    <t>noi declassiamo</t>
+  </si>
+  <si>
+    <t>noi essicchiamo</t>
+  </si>
+  <si>
+    <t>noi scartiamo</t>
+  </si>
+  <si>
+    <t>noi infrangiamo</t>
+  </si>
+  <si>
+    <t>noi interroghiamo</t>
+  </si>
+  <si>
+    <t>noi limitiamo</t>
+  </si>
+  <si>
+    <t>noi stropicciamo</t>
+  </si>
+  <si>
+    <t>voi declassate</t>
+  </si>
+  <si>
+    <t>voi essiccate</t>
+  </si>
+  <si>
+    <t>voi scartate</t>
+  </si>
+  <si>
+    <t>voi infrangete</t>
+  </si>
+  <si>
+    <t>voi interrogate</t>
+  </si>
+  <si>
+    <t>voi limitate</t>
+  </si>
+  <si>
+    <t>voi stropicciate</t>
+  </si>
+  <si>
+    <t>loro declassano</t>
+  </si>
+  <si>
+    <t>loro essiccano</t>
+  </si>
+  <si>
+    <t>loro scartano</t>
+  </si>
+  <si>
+    <t>loro infrangono</t>
+  </si>
+  <si>
+    <t>loro interrogano</t>
+  </si>
+  <si>
+    <t>loro limitano</t>
+  </si>
+  <si>
+    <t>loro stropicciano</t>
+  </si>
+  <si>
+    <t>io declassavo</t>
+  </si>
+  <si>
+    <t>io essiccavo</t>
+  </si>
+  <si>
+    <t>io scartavo</t>
+  </si>
+  <si>
+    <t>io infrangevo</t>
+  </si>
+  <si>
+    <t>io interrogavo</t>
+  </si>
+  <si>
+    <t>io limitavo</t>
+  </si>
+  <si>
+    <t>io stropicciavo</t>
+  </si>
+  <si>
+    <t>tu declassavi</t>
+  </si>
+  <si>
+    <t>tu essiccavi</t>
+  </si>
+  <si>
+    <t>tu scartavi</t>
+  </si>
+  <si>
+    <t>tu infrangevi</t>
+  </si>
+  <si>
+    <t>tu interrogavi</t>
+  </si>
+  <si>
+    <t>tu limitavi</t>
+  </si>
+  <si>
+    <t>tu stropicciavi</t>
+  </si>
+  <si>
+    <t>lei/lui declassava</t>
+  </si>
+  <si>
+    <t>lei/lui essiccava</t>
+  </si>
+  <si>
+    <t>lei/lui scartava</t>
+  </si>
+  <si>
+    <t>lei/lui infrangeva</t>
+  </si>
+  <si>
+    <t>lei/lui interrogava</t>
+  </si>
+  <si>
+    <t>lei/lui limitava</t>
+  </si>
+  <si>
+    <t>lei/lui stropicciava</t>
+  </si>
+  <si>
+    <t>noi declassavamo</t>
+  </si>
+  <si>
+    <t>noi essiccavamo</t>
+  </si>
+  <si>
+    <t>noi scartavamo</t>
+  </si>
+  <si>
+    <t>noi infrangevamo</t>
+  </si>
+  <si>
+    <t>noi interrogavamo</t>
+  </si>
+  <si>
+    <t>noi limitavamo</t>
+  </si>
+  <si>
+    <t>noi stropicciavamo</t>
+  </si>
+  <si>
+    <t>voi declassavate</t>
+  </si>
+  <si>
+    <t>voi essiccavate</t>
+  </si>
+  <si>
+    <t>voi scartavate</t>
+  </si>
+  <si>
+    <t>voi infrangevate</t>
+  </si>
+  <si>
+    <t>voi interrogavate</t>
+  </si>
+  <si>
+    <t>voi limitavate</t>
+  </si>
+  <si>
+    <t>voi stropicciavate</t>
+  </si>
+  <si>
+    <t>loro declassavano</t>
+  </si>
+  <si>
+    <t>loro essiccavano</t>
+  </si>
+  <si>
+    <t>loro scartavano</t>
+  </si>
+  <si>
+    <t>loro infrangevano</t>
+  </si>
+  <si>
+    <t>loro interrogavano</t>
+  </si>
+  <si>
+    <t>loro limitavano</t>
+  </si>
+  <si>
+    <t>loro stropicciavano</t>
+  </si>
+  <si>
+    <t>io declasserò</t>
+  </si>
+  <si>
+    <t>io essiccherò</t>
+  </si>
+  <si>
+    <t>io scarterò</t>
+  </si>
+  <si>
+    <t>io infrangerò</t>
+  </si>
+  <si>
+    <t>io interrogherò</t>
+  </si>
+  <si>
+    <t>io limiterò</t>
+  </si>
+  <si>
+    <t>io stropiccerò</t>
+  </si>
+  <si>
+    <t>tu declasserai</t>
+  </si>
+  <si>
+    <t>tu essiccherai</t>
+  </si>
+  <si>
+    <t>tu scarterai</t>
+  </si>
+  <si>
+    <t>tu infrangerai</t>
+  </si>
+  <si>
+    <t>tu interrogherai</t>
+  </si>
+  <si>
+    <t>tu limiterai</t>
+  </si>
+  <si>
+    <t>tu stropiccerai</t>
+  </si>
+  <si>
+    <t>lei/lui declasserà</t>
+  </si>
+  <si>
+    <t>lei/lui essiccherà</t>
+  </si>
+  <si>
+    <t>lei/lui scarterà</t>
+  </si>
+  <si>
+    <t>lei/lui infrangerà</t>
+  </si>
+  <si>
+    <t>lei/lui interrogherà</t>
+  </si>
+  <si>
+    <t>lei/lui limiterà</t>
+  </si>
+  <si>
+    <t>lei/lui stropiccerà</t>
+  </si>
+  <si>
+    <t>noi declasseremo</t>
+  </si>
+  <si>
+    <t>noi essiccheremo</t>
+  </si>
+  <si>
+    <t>noi scarteremo</t>
+  </si>
+  <si>
+    <t>noi infrangeremo</t>
+  </si>
+  <si>
+    <t>noi interrogheremo</t>
+  </si>
+  <si>
+    <t>noi limiteremo</t>
+  </si>
+  <si>
+    <t>noi stropicceremo</t>
+  </si>
+  <si>
+    <t>voi declasserete</t>
+  </si>
+  <si>
+    <t>voi essiccherete</t>
+  </si>
+  <si>
+    <t>voi scarterete</t>
+  </si>
+  <si>
+    <t>voi infrangerete</t>
+  </si>
+  <si>
+    <t>voi interrogherete</t>
+  </si>
+  <si>
+    <t>voi limiterete</t>
+  </si>
+  <si>
+    <t>voi stropiccerete</t>
+  </si>
+  <si>
+    <t>loro declasseranno</t>
+  </si>
+  <si>
+    <t>loro essiccheranno</t>
+  </si>
+  <si>
+    <t>loro scarteranno</t>
+  </si>
+  <si>
+    <t>loro infrangeranno</t>
+  </si>
+  <si>
+    <t>loro interrogheranno</t>
+  </si>
+  <si>
+    <t>loro limiteranno</t>
+  </si>
+  <si>
+    <t>loro stropicceranno</t>
+  </si>
+  <si>
+    <t>io ho declassato</t>
+  </si>
+  <si>
+    <t>io ho essiccato</t>
+  </si>
+  <si>
+    <t>io ho scartato</t>
+  </si>
+  <si>
+    <t>io ho infranto</t>
+  </si>
+  <si>
+    <t>io ho interrogato</t>
+  </si>
+  <si>
+    <t>io ho limitato</t>
+  </si>
+  <si>
+    <t>io ho stropicciato</t>
+  </si>
+  <si>
+    <t>tu hai declassato</t>
+  </si>
+  <si>
+    <t>tu hai essiccato</t>
+  </si>
+  <si>
+    <t>tu hai scartato</t>
+  </si>
+  <si>
+    <t>tu hai infranto</t>
+  </si>
+  <si>
+    <t>tu hai interrogato</t>
+  </si>
+  <si>
+    <t>tu hai limitato</t>
+  </si>
+  <si>
+    <t>tu hai stropicciato</t>
+  </si>
+  <si>
+    <t>lei/lui ha declassato</t>
+  </si>
+  <si>
+    <t>lei/lui ha essiccato</t>
+  </si>
+  <si>
+    <t>lei/lui ha scartato</t>
+  </si>
+  <si>
+    <t>lei/lui ha infranto</t>
+  </si>
+  <si>
+    <t>lei/lui ha interrogato</t>
+  </si>
+  <si>
+    <t>lei/lui ha limitato</t>
+  </si>
+  <si>
+    <t>lei/lui ha stropicciato</t>
+  </si>
+  <si>
+    <t>noi abbiamo declassato</t>
+  </si>
+  <si>
+    <t>noi abbiamo essiccato</t>
+  </si>
+  <si>
+    <t>noi abbiamo scartato</t>
+  </si>
+  <si>
+    <t>noi abbiamo infranto</t>
+  </si>
+  <si>
+    <t>noi abbiamo interrogato</t>
+  </si>
+  <si>
+    <t>noi abbiamo limitato</t>
+  </si>
+  <si>
+    <t>noi abbiamo stropicciato</t>
+  </si>
+  <si>
+    <t>voi avete declassato</t>
+  </si>
+  <si>
+    <t>voi avete essiccato</t>
+  </si>
+  <si>
+    <t>voi avete scartato</t>
+  </si>
+  <si>
+    <t>voi avete infranto</t>
+  </si>
+  <si>
+    <t>voi avete interrogato</t>
+  </si>
+  <si>
+    <t>voi avete limitato</t>
+  </si>
+  <si>
+    <t>voi avete stropicciato</t>
+  </si>
+  <si>
+    <t>loro hanno declassato</t>
+  </si>
+  <si>
+    <t>loro hanno essiccato</t>
+  </si>
+  <si>
+    <t>loro hanno scartato</t>
+  </si>
+  <si>
+    <t>loro hanno infranto</t>
+  </si>
+  <si>
+    <t>loro hanno interrogato</t>
+  </si>
+  <si>
+    <t>loro hanno limitato</t>
+  </si>
+  <si>
+    <t>loro hanno stropicciato</t>
+  </si>
+  <si>
+    <t>io avevo declassato</t>
+  </si>
+  <si>
+    <t>io avevo essiccato</t>
+  </si>
+  <si>
+    <t>io avevo scartato</t>
+  </si>
+  <si>
+    <t>io avevo infranto</t>
+  </si>
+  <si>
+    <t>io avevo interrogato</t>
+  </si>
+  <si>
+    <t>io avevo limitato</t>
+  </si>
+  <si>
+    <t>io avevo stropicciato</t>
+  </si>
+  <si>
+    <t>tu avevi declassato</t>
+  </si>
+  <si>
+    <t>tu avevi essiccato</t>
+  </si>
+  <si>
+    <t>tu avevi scartato</t>
+  </si>
+  <si>
+    <t>tu avevi infranto</t>
+  </si>
+  <si>
+    <t>tu avevi interrogato</t>
+  </si>
+  <si>
+    <t>tu avevi limitato</t>
+  </si>
+  <si>
+    <t>tu avevi stropicciato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva declassato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva essiccato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva scartato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva infranto</t>
+  </si>
+  <si>
+    <t>lei/lui aveva interrogato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva limitato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva stropicciato</t>
+  </si>
+  <si>
+    <t>noi avevamo declassato</t>
+  </si>
+  <si>
+    <t>noi avevamo essiccato</t>
+  </si>
+  <si>
+    <t>noi avevamo scartato</t>
+  </si>
+  <si>
+    <t>noi avevamo infranto</t>
+  </si>
+  <si>
+    <t>noi avevamo interrogato</t>
+  </si>
+  <si>
+    <t>noi avevamo limitato</t>
+  </si>
+  <si>
+    <t>noi avevamo stropicciato</t>
+  </si>
+  <si>
+    <t>voi avevate declassato</t>
+  </si>
+  <si>
+    <t>voi avevate essiccato</t>
+  </si>
+  <si>
+    <t>voi avevate scartato</t>
+  </si>
+  <si>
+    <t>voi avevate infranto</t>
+  </si>
+  <si>
+    <t>voi avevate interrogato</t>
+  </si>
+  <si>
+    <t>voi avevate limitato</t>
+  </si>
+  <si>
+    <t>voi avevate stropicciato</t>
+  </si>
+  <si>
+    <t>loro avevano declassato</t>
+  </si>
+  <si>
+    <t>loro avevano essiccato</t>
+  </si>
+  <si>
+    <t>loro avevano scartato</t>
+  </si>
+  <si>
+    <t>loro avevano infranto</t>
+  </si>
+  <si>
+    <t>loro avevano interrogato</t>
+  </si>
+  <si>
+    <t>loro avevano limitato</t>
+  </si>
+  <si>
+    <t>loro avevano stropicciato</t>
+  </si>
+  <si>
+    <t>io avrò declassato</t>
+  </si>
+  <si>
+    <t>io avrò essiccato</t>
+  </si>
+  <si>
+    <t>io avrò scartato</t>
+  </si>
+  <si>
+    <t>io avrò infranto</t>
+  </si>
+  <si>
+    <t>io avrò interrogato</t>
+  </si>
+  <si>
+    <t>io avrò limitato</t>
+  </si>
+  <si>
+    <t>io avrò stropicciato</t>
+  </si>
+  <si>
+    <t>tu avrai declassato</t>
+  </si>
+  <si>
+    <t>tu avrai essiccato</t>
+  </si>
+  <si>
+    <t>tu avrai scartato</t>
+  </si>
+  <si>
+    <t>tu avrai infranto</t>
+  </si>
+  <si>
+    <t>tu avrai interrogato</t>
+  </si>
+  <si>
+    <t>tu avrai limitato</t>
+  </si>
+  <si>
+    <t>tu avrai stropicciato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà declassato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà essiccato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà scartato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà infranto</t>
+  </si>
+  <si>
+    <t>lei/lui avrà interrogato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà limitato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà stropicciato</t>
+  </si>
+  <si>
+    <t>noi avremo declassato</t>
+  </si>
+  <si>
+    <t>noi avremo essiccato</t>
+  </si>
+  <si>
+    <t>noi avremo scartato</t>
+  </si>
+  <si>
+    <t>noi avremo infranto</t>
+  </si>
+  <si>
+    <t>noi avremo interrogato</t>
+  </si>
+  <si>
+    <t>noi avremo limitato</t>
+  </si>
+  <si>
+    <t>noi avremo stropicciato</t>
+  </si>
+  <si>
+    <t>voi avrete declassato</t>
+  </si>
+  <si>
+    <t>voi avrete essiccato</t>
+  </si>
+  <si>
+    <t>voi avrete scartato</t>
+  </si>
+  <si>
+    <t>voi avrete infranto</t>
+  </si>
+  <si>
+    <t>voi avrete interrogato</t>
+  </si>
+  <si>
+    <t>voi avrete limitato</t>
+  </si>
+  <si>
+    <t>voi avrete stropicciato</t>
+  </si>
+  <si>
+    <t>loro avranno declassato</t>
+  </si>
+  <si>
+    <t>loro avranno essiccato</t>
+  </si>
+  <si>
+    <t>loro avranno scartato</t>
+  </si>
+  <si>
+    <t>loro avranno infranto</t>
+  </si>
+  <si>
+    <t>loro avranno interrogato</t>
+  </si>
+  <si>
+    <t>loro avranno limitato</t>
+  </si>
+  <si>
+    <t>loro avranno stropicciato</t>
   </si>
 </sst>
 </file>
@@ -485,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BT8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,217 +1362,1525 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>238</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>252</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="BD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>2</v>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>253</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Tempi Italiani.xlsx
+++ b/Tempi Italiani.xlsx
@@ -14,120 +14,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>io conservo</t>
+    <t>io prolungo</t>
+  </si>
+  <si>
+    <t>io rinuncio</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>tu conservi</t>
-  </si>
-  <si>
-    <t>lei/lui conserva</t>
-  </si>
-  <si>
-    <t>noi conserviamo</t>
-  </si>
-  <si>
-    <t>voi conservate</t>
-  </si>
-  <si>
-    <t>loro conservano</t>
-  </si>
-  <si>
-    <t>io conservavo</t>
-  </si>
-  <si>
-    <t>tu conservavi</t>
-  </si>
-  <si>
-    <t>lei/lui conservava</t>
-  </si>
-  <si>
-    <t>noi conservavamo</t>
-  </si>
-  <si>
-    <t>voi conservavate</t>
-  </si>
-  <si>
-    <t>loro conservavano</t>
-  </si>
-  <si>
-    <t>io conserverò</t>
-  </si>
-  <si>
-    <t>tu conserverai</t>
-  </si>
-  <si>
-    <t>lei/lui conserverà</t>
-  </si>
-  <si>
-    <t>noi conserveremo</t>
-  </si>
-  <si>
-    <t>voi conserverete</t>
-  </si>
-  <si>
-    <t>loro conserveranno</t>
-  </si>
-  <si>
-    <t>io ho conservato</t>
-  </si>
-  <si>
-    <t>tu hai conservato</t>
-  </si>
-  <si>
-    <t>lei/lui ha conservato</t>
-  </si>
-  <si>
-    <t>noi abbiamo conservato</t>
-  </si>
-  <si>
-    <t>voi avete conservato</t>
-  </si>
-  <si>
-    <t>loro hanno conservato</t>
-  </si>
-  <si>
-    <t>io avevo conservato</t>
-  </si>
-  <si>
-    <t>tu avevi conservato</t>
-  </si>
-  <si>
-    <t>lei/lui aveva conservato</t>
-  </si>
-  <si>
-    <t>noi avevamo conservato</t>
-  </si>
-  <si>
-    <t>voi avevate conservato</t>
-  </si>
-  <si>
-    <t>loro avevano conservato</t>
-  </si>
-  <si>
-    <t>io avrò conservato</t>
-  </si>
-  <si>
-    <t>tu avrai conservato</t>
-  </si>
-  <si>
-    <t>lei/lui avrà conservato</t>
-  </si>
-  <si>
-    <t>noi avremo conservato</t>
-  </si>
-  <si>
-    <t>voi avrete conservato</t>
-  </si>
-  <si>
-    <t>loro avranno conservato</t>
+    <t>tu prolunghi</t>
+  </si>
+  <si>
+    <t>tu rinunci</t>
+  </si>
+  <si>
+    <t>lei/lui prolunga</t>
+  </si>
+  <si>
+    <t>lei/lui rinuncia</t>
+  </si>
+  <si>
+    <t>noi prolunghiamo</t>
+  </si>
+  <si>
+    <t>noi rinunciamo</t>
+  </si>
+  <si>
+    <t>voi prolungate</t>
+  </si>
+  <si>
+    <t>voi rinunciate</t>
+  </si>
+  <si>
+    <t>loro prolungano</t>
+  </si>
+  <si>
+    <t>loro rinunciano</t>
+  </si>
+  <si>
+    <t>io prolungavo</t>
+  </si>
+  <si>
+    <t>io rinunciavo</t>
+  </si>
+  <si>
+    <t>tu prolungavi</t>
+  </si>
+  <si>
+    <t>tu rinunciavi</t>
+  </si>
+  <si>
+    <t>lei/lui prolungava</t>
+  </si>
+  <si>
+    <t>lei/lui rinunciava</t>
+  </si>
+  <si>
+    <t>noi prolungavamo</t>
+  </si>
+  <si>
+    <t>noi rinunciavamo</t>
+  </si>
+  <si>
+    <t>voi prolungavate</t>
+  </si>
+  <si>
+    <t>voi rinunciavate</t>
+  </si>
+  <si>
+    <t>loro prolungavano</t>
+  </si>
+  <si>
+    <t>loro rinunciavano</t>
+  </si>
+  <si>
+    <t>io prolungherò</t>
+  </si>
+  <si>
+    <t>io rinuncerò</t>
+  </si>
+  <si>
+    <t>tu prolungherai</t>
+  </si>
+  <si>
+    <t>tu rinuncerai</t>
+  </si>
+  <si>
+    <t>lei/lui prolungherà</t>
+  </si>
+  <si>
+    <t>lei/lui rinuncerà</t>
+  </si>
+  <si>
+    <t>noi prolungheremo</t>
+  </si>
+  <si>
+    <t>noi rinunceremo</t>
+  </si>
+  <si>
+    <t>voi prolungherete</t>
+  </si>
+  <si>
+    <t>voi rinuncerete</t>
+  </si>
+  <si>
+    <t>loro prolungheranno</t>
+  </si>
+  <si>
+    <t>loro rinunceranno</t>
+  </si>
+  <si>
+    <t>io ho prolungato</t>
+  </si>
+  <si>
+    <t>io ho rinunciato</t>
+  </si>
+  <si>
+    <t>tu hai prolungato</t>
+  </si>
+  <si>
+    <t>tu hai rinunciato</t>
+  </si>
+  <si>
+    <t>lei/lui ha prolungato</t>
+  </si>
+  <si>
+    <t>lei/lui ha rinunciato</t>
+  </si>
+  <si>
+    <t>noi abbiamo prolungato</t>
+  </si>
+  <si>
+    <t>noi abbiamo rinunciato</t>
+  </si>
+  <si>
+    <t>voi avete prolungato</t>
+  </si>
+  <si>
+    <t>voi avete rinunciato</t>
+  </si>
+  <si>
+    <t>loro hanno prolungato</t>
+  </si>
+  <si>
+    <t>loro hanno rinunciato</t>
+  </si>
+  <si>
+    <t>io avevo prolungato</t>
+  </si>
+  <si>
+    <t>io avevo rinunciato</t>
+  </si>
+  <si>
+    <t>tu avevi prolungato</t>
+  </si>
+  <si>
+    <t>tu avevi rinunciato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva prolungato</t>
+  </si>
+  <si>
+    <t>lei/lui aveva rinunciato</t>
+  </si>
+  <si>
+    <t>noi avevamo prolungato</t>
+  </si>
+  <si>
+    <t>noi avevamo rinunciato</t>
+  </si>
+  <si>
+    <t>voi avevate prolungato</t>
+  </si>
+  <si>
+    <t>voi avevate rinunciato</t>
+  </si>
+  <si>
+    <t>loro avevano prolungato</t>
+  </si>
+  <si>
+    <t>loro avevano rinunciato</t>
+  </si>
+  <si>
+    <t>io avrò prolungato</t>
+  </si>
+  <si>
+    <t>io avrò rinunciato</t>
+  </si>
+  <si>
+    <t>tu avrai prolungato</t>
+  </si>
+  <si>
+    <t>tu avrai rinunciato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà prolungato</t>
+  </si>
+  <si>
+    <t>lei/lui avrà rinunciato</t>
+  </si>
+  <si>
+    <t>noi avremo prolungato</t>
+  </si>
+  <si>
+    <t>noi avremo rinunciato</t>
+  </si>
+  <si>
+    <t>voi avrete prolungato</t>
+  </si>
+  <si>
+    <t>voi avrete rinunciato</t>
+  </si>
+  <si>
+    <t>loro avranno prolungato</t>
+  </si>
+  <si>
+    <t>loro avranno rinunciato</t>
   </si>
 </sst>
 </file>
@@ -485,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,217 +822,435 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
         <v>23</v>
       </c>
-      <c r="AR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
         <v>25</v>
       </c>
-      <c r="AV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
         <v>27</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="s">
         <v>29</v>
       </c>
-      <c r="BD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="s">
         <v>31</v>
       </c>
-      <c r="BH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="AD3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="s">
         <v>33</v>
       </c>
-      <c r="BL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="s">
+      <c r="AF3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="s">
         <v>35</v>
       </c>
-      <c r="BP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="s">
+      <c r="AH3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="s">
         <v>37</v>
       </c>
-      <c r="BT2" t="s">
-        <v>2</v>
+      <c r="AJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
